--- a/code/java-web-demo/src/test/resources/明协公司_2017-6-11.xlsx
+++ b/code/java-web-demo/src/test/resources/明协公司_2017-6-11.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CoderDream\Documents\WeChat Files\coderdream\Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CoderDream\Documents\GitHub\java-web-demo\code\java-web-demo\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,18 +13,18 @@
   </bookViews>
   <sheets>
     <sheet name="汇总" sheetId="7" r:id="rId1"/>
-    <sheet name="汇总 (2)" sheetId="8" r:id="rId2"/>
+    <sheet name="现金" sheetId="9" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">汇总!$A$1:$F$133</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'汇总 (2)'!$A$1:$F$133</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">汇总!$A$1:$H$133</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">现金!$A$1:$F$135</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="75">
   <si>
     <t>日期</t>
   </si>
@@ -126,15 +126,219 @@
   <si>
     <t>运费</t>
   </si>
+  <si>
+    <t>差额</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>摘要</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>借陈明</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>借谢协</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>借许</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>借刘总</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>收货款</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>收6906货款</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈明报运输发票</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈明报其他</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>还陈明</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢协报购手机款</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>尚坤报油漆发票</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>尚坤报招待费及购报销单</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈明报刷卡费</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈明报地税款</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>陈明报付会计2月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3月工资</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈明报吃饭</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈明报烟</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈明报罚款</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈明报费用</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>付国税</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>付地税</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>付兼职会计公司4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>56月</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>转款手续费</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>会计报地税印花税</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>会计报水利建设基金</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>回单及其他费用</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈明借公司</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>还刘总</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>还许</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>还谢协</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月4月付货款（钢材销售款）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月4月付钢材款</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月4月付油漆款</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>肖坤报购办公用品一批</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>肖坤报招待费</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收68638.14，实收76661.99</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>收钢材款</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>收油漆款</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时未付</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>30+3.2+30+35+14.16</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,8 +364,22 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -171,6 +389,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -215,9 +439,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -227,7 +451,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -239,8 +463,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -302,7 +538,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -337,7 +573,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -546,25 +782,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F139"/>
+  <dimension ref="A1:H139"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.25" style="2" customWidth="1"/>
     <col min="3" max="3" width="10.75" style="2" customWidth="1"/>
-    <col min="4" max="5" width="11.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="22.75" style="2" customWidth="1"/>
-    <col min="7" max="7" width="1.25" style="3" customWidth="1"/>
-    <col min="8" max="8" width="2.125" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="3"/>
+    <col min="4" max="7" width="11.25" style="2" customWidth="1"/>
+    <col min="8" max="8" width="22.75" style="2" customWidth="1"/>
+    <col min="9" max="9" width="1.25" style="3" customWidth="1"/>
+    <col min="10" max="10" width="2.125" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -581,10 +817,16 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>42850</v>
       </c>
@@ -600,11 +842,18 @@
       <c r="E2" s="7">
         <v>25247.7</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="7">
+        <v>25247.7</v>
+      </c>
+      <c r="G2" s="7">
+        <f>F2-E2</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="7">
         <v>369376.44</v>
@@ -618,11 +867,19 @@
       <c r="E3" s="8">
         <v>74834.929999999993</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="8">
+        <f>F2+B3-C3</f>
+        <v>74834.929999999993</v>
+      </c>
+      <c r="G3" s="7">
+        <f t="shared" ref="G3:G20" si="0">F3-E3</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="7">
         <v>23410</v>
@@ -636,11 +893,19 @@
       <c r="E4" s="7">
         <v>97974.93</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="8">
+        <f t="shared" ref="F4:F20" si="1">F3+B4-C4</f>
+        <v>98244.93</v>
+      </c>
+      <c r="G4" s="10">
+        <f t="shared" si="0"/>
+        <v>270</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="7">
         <v>64863.5</v>
@@ -654,11 +919,19 @@
       <c r="E5" s="7">
         <v>113616.47</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="8">
+        <f t="shared" si="1"/>
+        <v>113886.47</v>
+      </c>
+      <c r="G5" s="7">
+        <f t="shared" si="0"/>
+        <v>270</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>42814</v>
       </c>
@@ -670,9 +943,17 @@
         <v>12</v>
       </c>
       <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F6" s="8">
+        <f t="shared" si="1"/>
+        <v>109854.47</v>
+      </c>
+      <c r="G6" s="7">
+        <f t="shared" si="0"/>
+        <v>109854.47</v>
+      </c>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7">
@@ -682,9 +963,17 @@
         <v>13</v>
       </c>
       <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F7" s="8">
+        <f t="shared" si="1"/>
+        <v>106154.47</v>
+      </c>
+      <c r="G7" s="7">
+        <f t="shared" si="0"/>
+        <v>106154.47</v>
+      </c>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7">
@@ -694,9 +983,17 @@
         <v>14</v>
       </c>
       <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F8" s="8">
+        <f t="shared" si="1"/>
+        <v>96407.47</v>
+      </c>
+      <c r="G8" s="7">
+        <f t="shared" si="0"/>
+        <v>96407.47</v>
+      </c>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7">
@@ -708,11 +1005,19 @@
       <c r="E9" s="7">
         <v>94967.47</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="8">
+        <f t="shared" si="1"/>
+        <v>95237.47</v>
+      </c>
+      <c r="G9" s="7">
+        <f t="shared" si="0"/>
+        <v>270</v>
+      </c>
+      <c r="H9" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7">
@@ -722,9 +1027,17 @@
         <v>17</v>
       </c>
       <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F10" s="8">
+        <f t="shared" si="1"/>
+        <v>91637.47</v>
+      </c>
+      <c r="G10" s="7">
+        <f t="shared" si="0"/>
+        <v>91637.47</v>
+      </c>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7">
@@ -734,11 +1047,19 @@
         <v>18</v>
       </c>
       <c r="E11" s="7"/>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="8">
+        <f t="shared" si="1"/>
+        <v>90531.47</v>
+      </c>
+      <c r="G11" s="7">
+        <f t="shared" si="0"/>
+        <v>90531.47</v>
+      </c>
+      <c r="H11" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7">
@@ -748,9 +1069,17 @@
         <v>20</v>
       </c>
       <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F12" s="8">
+        <f t="shared" si="1"/>
+        <v>89718.47</v>
+      </c>
+      <c r="G12" s="7">
+        <f t="shared" si="0"/>
+        <v>89718.47</v>
+      </c>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7">
@@ -760,11 +1089,19 @@
         <v>21</v>
       </c>
       <c r="E13" s="7"/>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="8">
+        <f t="shared" si="1"/>
+        <v>87318.47</v>
+      </c>
+      <c r="G13" s="7">
+        <f t="shared" si="0"/>
+        <v>87318.47</v>
+      </c>
+      <c r="H13" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7">
@@ -774,9 +1111,17 @@
         <v>23</v>
       </c>
       <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F14" s="8">
+        <f t="shared" si="1"/>
+        <v>87218.47</v>
+      </c>
+      <c r="G14" s="7">
+        <f t="shared" si="0"/>
+        <v>87218.47</v>
+      </c>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7">
@@ -786,11 +1131,19 @@
         <v>21</v>
       </c>
       <c r="E15" s="7"/>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="8">
+        <f t="shared" si="1"/>
+        <v>85618.47</v>
+      </c>
+      <c r="G15" s="7">
+        <f t="shared" si="0"/>
+        <v>85618.47</v>
+      </c>
+      <c r="H15" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7">
@@ -800,9 +1153,17 @@
         <v>18</v>
       </c>
       <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F16" s="8">
+        <f t="shared" si="1"/>
+        <v>85443.47</v>
+      </c>
+      <c r="G16" s="7">
+        <f t="shared" si="0"/>
+        <v>85443.47</v>
+      </c>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7">
@@ -812,9 +1173,17 @@
         <v>25</v>
       </c>
       <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F17" s="8">
+        <f t="shared" si="1"/>
+        <v>85113.47</v>
+      </c>
+      <c r="G17" s="7">
+        <f t="shared" si="0"/>
+        <v>85113.47</v>
+      </c>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7">
@@ -824,9 +1193,17 @@
         <v>26</v>
       </c>
       <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F18" s="8">
+        <f t="shared" si="1"/>
+        <v>84913.47</v>
+      </c>
+      <c r="G18" s="7">
+        <f t="shared" si="0"/>
+        <v>84913.47</v>
+      </c>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7">
@@ -838,11 +1215,19 @@
       <c r="E19" s="7">
         <v>81459.47</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="8">
+        <f t="shared" si="1"/>
+        <v>81729.47</v>
+      </c>
+      <c r="G19" s="7">
+        <f t="shared" si="0"/>
+        <v>270</v>
+      </c>
+      <c r="H19" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>42815</v>
       </c>
@@ -856,959 +1241,1205 @@
       <c r="E20" s="8">
         <v>77793.47</v>
       </c>
-      <c r="F20" s="8"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F20" s="8">
+        <f t="shared" si="1"/>
+        <v>78063.47</v>
+      </c>
+      <c r="G20" s="7">
+        <f t="shared" si="0"/>
+        <v>270</v>
+      </c>
+      <c r="H20" s="8"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
       <c r="B22" s="6"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" s="6"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="6"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
       <c r="B25" s="6"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
       <c r="B26" s="6"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="6"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
       <c r="B30" s="6"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
       <c r="B31" s="6"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="5"/>
       <c r="B32" s="6"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
       <c r="B33" s="6"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="5"/>
       <c r="B34" s="6"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="5"/>
       <c r="B36" s="6"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="5"/>
       <c r="B38" s="6"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
       <c r="B39" s="6"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="5"/>
       <c r="B40" s="6"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="5"/>
       <c r="B41" s="6"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
       <c r="B42" s="6"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
       <c r="B43" s="6"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
       <c r="B44" s="6"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="5"/>
       <c r="B45" s="6"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="5"/>
       <c r="B46" s="6"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="5"/>
       <c r="B47" s="6"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
       <c r="B48" s="6"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
       <c r="B49" s="6"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="5"/>
       <c r="B50" s="6"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="5"/>
       <c r="B51" s="6"/>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="5"/>
       <c r="B52" s="6"/>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="5"/>
       <c r="B53" s="6"/>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="5"/>
       <c r="B54" s="6"/>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="5"/>
       <c r="B55" s="6"/>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="5"/>
       <c r="B56" s="6"/>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="5"/>
       <c r="B57" s="6"/>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="5"/>
       <c r="B58" s="6"/>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="5"/>
       <c r="B59" s="6"/>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="5"/>
       <c r="B60" s="6"/>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
       <c r="F60" s="7"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="5"/>
       <c r="B61" s="6"/>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
       <c r="F61" s="7"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="5"/>
       <c r="B62" s="6"/>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
       <c r="F62" s="7"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="5"/>
       <c r="B63" s="6"/>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
       <c r="F63" s="7"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="5"/>
       <c r="B64" s="6"/>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="5"/>
       <c r="B65" s="6"/>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
       <c r="F65" s="7"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="5"/>
       <c r="B66" s="6"/>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
       <c r="F66" s="7"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="5"/>
       <c r="B67" s="6"/>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
       <c r="F67" s="7"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="5"/>
       <c r="B68" s="6"/>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
       <c r="F68" s="7"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="5"/>
       <c r="B69" s="6"/>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
       <c r="F69" s="7"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="5"/>
       <c r="B70" s="6"/>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
       <c r="F70" s="7"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="5"/>
       <c r="B71" s="6"/>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
       <c r="F71" s="7"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="5"/>
       <c r="B72" s="6"/>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
       <c r="E72" s="7"/>
       <c r="F72" s="7"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="5"/>
       <c r="B73" s="6"/>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
       <c r="F73" s="7"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="5"/>
       <c r="B74" s="6"/>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
       <c r="F74" s="7"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="5"/>
       <c r="B75" s="6"/>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
       <c r="E75" s="7"/>
       <c r="F75" s="7"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="5"/>
       <c r="B76" s="6"/>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
       <c r="E76" s="7"/>
       <c r="F76" s="7"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="5"/>
       <c r="B77" s="6"/>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
       <c r="E77" s="7"/>
       <c r="F77" s="7"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="5"/>
       <c r="B78" s="6"/>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
       <c r="E78" s="7"/>
       <c r="F78" s="7"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="5"/>
       <c r="B79" s="6"/>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
       <c r="F79" s="7"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="5"/>
       <c r="B80" s="6"/>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
       <c r="E80" s="7"/>
       <c r="F80" s="7"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="5"/>
       <c r="B81" s="6"/>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
       <c r="F81" s="7"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="5"/>
       <c r="B82" s="6"/>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
       <c r="F82" s="7"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="5"/>
       <c r="B83" s="6"/>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
       <c r="F83" s="7"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="5"/>
       <c r="B84" s="6"/>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
       <c r="E84" s="7"/>
       <c r="F84" s="7"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="5"/>
       <c r="B85" s="6"/>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
       <c r="F85" s="7"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="5"/>
       <c r="B86" s="6"/>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
       <c r="E86" s="7"/>
       <c r="F86" s="7"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="5"/>
       <c r="B87" s="6"/>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
       <c r="E87" s="7"/>
       <c r="F87" s="7"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="5"/>
       <c r="B88" s="6"/>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
       <c r="F88" s="7"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="5"/>
       <c r="B89" s="6"/>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
       <c r="E89" s="7"/>
       <c r="F89" s="7"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G89" s="7"/>
+      <c r="H89" s="7"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="5"/>
       <c r="B90" s="6"/>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
       <c r="E90" s="7"/>
       <c r="F90" s="7"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G90" s="7"/>
+      <c r="H90" s="7"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="5"/>
       <c r="B91" s="6"/>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
       <c r="E91" s="7"/>
       <c r="F91" s="7"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G91" s="7"/>
+      <c r="H91" s="7"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="5"/>
       <c r="B92" s="6"/>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
       <c r="E92" s="7"/>
       <c r="F92" s="7"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G92" s="7"/>
+      <c r="H92" s="7"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="5"/>
       <c r="B93" s="6"/>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
       <c r="E93" s="7"/>
       <c r="F93" s="7"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G93" s="7"/>
+      <c r="H93" s="7"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="5"/>
       <c r="B94" s="6"/>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
       <c r="F94" s="7"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G94" s="7"/>
+      <c r="H94" s="7"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="5"/>
       <c r="B95" s="6"/>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
       <c r="F95" s="7"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G95" s="7"/>
+      <c r="H95" s="7"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="5"/>
       <c r="B96" s="6"/>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
       <c r="E96" s="7"/>
       <c r="F96" s="7"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G96" s="7"/>
+      <c r="H96" s="7"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="5"/>
       <c r="B97" s="6"/>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
       <c r="E97" s="7"/>
       <c r="F97" s="7"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G97" s="7"/>
+      <c r="H97" s="7"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="5"/>
       <c r="B98" s="6"/>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
       <c r="E98" s="7"/>
       <c r="F98" s="7"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G98" s="7"/>
+      <c r="H98" s="7"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="5"/>
       <c r="B99" s="6"/>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
       <c r="E99" s="7"/>
       <c r="F99" s="7"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G99" s="7"/>
+      <c r="H99" s="7"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="5"/>
       <c r="B100" s="6"/>
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
       <c r="F100" s="7"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G100" s="7"/>
+      <c r="H100" s="7"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="5"/>
       <c r="B101" s="6"/>
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
       <c r="E101" s="7"/>
       <c r="F101" s="7"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G101" s="7"/>
+      <c r="H101" s="7"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="5"/>
       <c r="B102" s="6"/>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
       <c r="E102" s="7"/>
       <c r="F102" s="7"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G102" s="7"/>
+      <c r="H102" s="7"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="5"/>
       <c r="B103" s="6"/>
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
       <c r="E103" s="7"/>
       <c r="F103" s="7"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G103" s="7"/>
+      <c r="H103" s="7"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="5"/>
       <c r="B104" s="6"/>
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
       <c r="E104" s="7"/>
       <c r="F104" s="7"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G104" s="7"/>
+      <c r="H104" s="7"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="5"/>
       <c r="B105" s="6"/>
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
       <c r="E105" s="7"/>
       <c r="F105" s="7"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G105" s="7"/>
+      <c r="H105" s="7"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="5"/>
       <c r="B106" s="6"/>
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
       <c r="E106" s="7"/>
       <c r="F106" s="7"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G106" s="7"/>
+      <c r="H106" s="7"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="5"/>
       <c r="B107" s="6"/>
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
       <c r="E107" s="7"/>
       <c r="F107" s="7"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G107" s="7"/>
+      <c r="H107" s="7"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="5"/>
       <c r="B108" s="6"/>
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
       <c r="E108" s="7"/>
       <c r="F108" s="7"/>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G108" s="7"/>
+      <c r="H108" s="7"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="5"/>
       <c r="B109" s="6"/>
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
       <c r="E109" s="7"/>
       <c r="F109" s="7"/>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G109" s="7"/>
+      <c r="H109" s="7"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="5"/>
       <c r="B110" s="6"/>
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
       <c r="E110" s="7"/>
       <c r="F110" s="7"/>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G110" s="7"/>
+      <c r="H110" s="7"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="5"/>
       <c r="B111" s="6"/>
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
       <c r="E111" s="7"/>
       <c r="F111" s="7"/>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G111" s="7"/>
+      <c r="H111" s="7"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="5"/>
       <c r="B112" s="6"/>
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
       <c r="E112" s="7"/>
       <c r="F112" s="7"/>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G112" s="7"/>
+      <c r="H112" s="7"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="5"/>
       <c r="B113" s="6"/>
       <c r="C113" s="7"/>
       <c r="D113" s="7"/>
       <c r="E113" s="7"/>
       <c r="F113" s="7"/>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G113" s="7"/>
+      <c r="H113" s="7"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="5"/>
       <c r="B114" s="6"/>
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
       <c r="E114" s="7"/>
       <c r="F114" s="7"/>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G114" s="7"/>
+      <c r="H114" s="7"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="5"/>
       <c r="B115" s="6"/>
       <c r="C115" s="7"/>
       <c r="D115" s="7"/>
       <c r="E115" s="7"/>
       <c r="F115" s="7"/>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G115" s="7"/>
+      <c r="H115" s="7"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="5"/>
       <c r="B116" s="6"/>
       <c r="C116" s="7"/>
       <c r="D116" s="7"/>
       <c r="E116" s="7"/>
       <c r="F116" s="7"/>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G116" s="7"/>
+      <c r="H116" s="7"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="5"/>
       <c r="B117" s="6"/>
       <c r="C117" s="7"/>
       <c r="D117" s="7"/>
       <c r="E117" s="7"/>
       <c r="F117" s="7"/>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G117" s="7"/>
+      <c r="H117" s="7"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="5"/>
       <c r="B118" s="6"/>
       <c r="C118" s="7"/>
       <c r="D118" s="7"/>
       <c r="E118" s="7"/>
       <c r="F118" s="7"/>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G118" s="7"/>
+      <c r="H118" s="7"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="5"/>
       <c r="B119" s="6"/>
       <c r="C119" s="7"/>
       <c r="D119" s="7"/>
       <c r="E119" s="7"/>
       <c r="F119" s="7"/>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G119" s="7"/>
+      <c r="H119" s="7"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="5"/>
       <c r="B120" s="6"/>
       <c r="C120" s="7"/>
       <c r="D120" s="7"/>
       <c r="E120" s="7"/>
       <c r="F120" s="7"/>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G120" s="7"/>
+      <c r="H120" s="7"/>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="5"/>
       <c r="B121" s="6"/>
       <c r="C121" s="7"/>
       <c r="D121" s="7"/>
       <c r="E121" s="7"/>
       <c r="F121" s="7"/>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G121" s="7"/>
+      <c r="H121" s="7"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="5"/>
       <c r="B122" s="6"/>
       <c r="C122" s="7"/>
       <c r="D122" s="7"/>
       <c r="E122" s="7"/>
       <c r="F122" s="7"/>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G122" s="7"/>
+      <c r="H122" s="7"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="5"/>
       <c r="B123" s="6"/>
       <c r="C123" s="7"/>
       <c r="D123" s="7"/>
       <c r="E123" s="7"/>
       <c r="F123" s="7"/>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G123" s="7"/>
+      <c r="H123" s="7"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="5"/>
       <c r="B124" s="6"/>
       <c r="C124" s="7"/>
       <c r="D124" s="7"/>
       <c r="E124" s="7"/>
       <c r="F124" s="7"/>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G124" s="7"/>
+      <c r="H124" s="7"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="5"/>
       <c r="B125" s="6"/>
       <c r="C125" s="7"/>
       <c r="D125" s="7"/>
       <c r="E125" s="7"/>
       <c r="F125" s="7"/>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G125" s="7"/>
+      <c r="H125" s="7"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="5"/>
       <c r="B126" s="6"/>
       <c r="C126" s="7"/>
       <c r="D126" s="7"/>
       <c r="E126" s="7"/>
       <c r="F126" s="7"/>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G126" s="7"/>
+      <c r="H126" s="7"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="5"/>
       <c r="B127" s="6"/>
       <c r="C127" s="7"/>
       <c r="D127" s="7"/>
       <c r="E127" s="7"/>
       <c r="F127" s="7"/>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G127" s="7"/>
+      <c r="H127" s="7"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="5"/>
       <c r="B128" s="6"/>
       <c r="C128" s="7"/>
       <c r="D128" s="7"/>
       <c r="E128" s="7"/>
       <c r="F128" s="7"/>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G128" s="7"/>
+      <c r="H128" s="7"/>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="5"/>
       <c r="B129" s="6"/>
       <c r="C129" s="7"/>
       <c r="D129" s="7"/>
       <c r="E129" s="7"/>
       <c r="F129" s="7"/>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G129" s="7"/>
+      <c r="H129" s="7"/>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="5"/>
       <c r="B130" s="6"/>
       <c r="C130" s="7"/>
       <c r="D130" s="7"/>
       <c r="E130" s="7"/>
       <c r="F130" s="7"/>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G130" s="7"/>
+      <c r="H130" s="7"/>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="5"/>
       <c r="B131" s="6"/>
       <c r="C131" s="7"/>
       <c r="D131" s="7"/>
       <c r="E131" s="7"/>
       <c r="F131" s="7"/>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G131" s="7"/>
+      <c r="H131" s="7"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="5"/>
       <c r="B132" s="6"/>
       <c r="C132" s="7"/>
       <c r="D132" s="7"/>
       <c r="E132" s="7"/>
       <c r="F132" s="7"/>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G132" s="7"/>
+      <c r="H132" s="7"/>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="5"/>
       <c r="B133" s="6"/>
       <c r="C133" s="7"/>
       <c r="D133" s="7"/>
       <c r="E133" s="7"/>
       <c r="F133" s="7"/>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G133" s="7"/>
+      <c r="H133" s="7"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="5"/>
       <c r="B134" s="6"/>
       <c r="C134" s="7"/>
       <c r="D134" s="7"/>
       <c r="E134" s="7"/>
       <c r="F134" s="7"/>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G134" s="7"/>
+      <c r="H134" s="7"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="5"/>
       <c r="B135" s="6"/>
       <c r="C135" s="7"/>
       <c r="D135" s="7"/>
       <c r="E135" s="7"/>
       <c r="F135" s="7"/>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G135" s="7"/>
+      <c r="H135" s="7"/>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="5"/>
       <c r="B136" s="6"/>
       <c r="C136" s="7"/>
       <c r="D136" s="7"/>
       <c r="E136" s="7"/>
       <c r="F136" s="7"/>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G136" s="7"/>
+      <c r="H136" s="7"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="5"/>
       <c r="B137" s="6"/>
       <c r="C137" s="7"/>
       <c r="D137" s="7"/>
       <c r="E137" s="7"/>
       <c r="F137" s="7"/>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G137" s="7"/>
+      <c r="H137" s="7"/>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="5"/>
       <c r="B138" s="6"/>
       <c r="C138" s="7"/>
       <c r="D138" s="7"/>
       <c r="E138" s="7"/>
       <c r="F138" s="7"/>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G138" s="7"/>
+      <c r="H138" s="7"/>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="5"/>
       <c r="B139" s="6"/>
       <c r="C139" s="7"/>
       <c r="D139" s="7"/>
       <c r="E139" s="7"/>
       <c r="F139" s="7"/>
+      <c r="G139" s="7"/>
+      <c r="H139" s="7"/>
     </row>
   </sheetData>
   <sortState ref="A2:F140">
@@ -1822,37 +2453,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I139"/>
+  <dimension ref="A1:F141"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.25" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.75" style="2" customWidth="1"/>
-    <col min="4" max="5" width="11.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="22.75" style="2" customWidth="1"/>
-    <col min="7" max="7" width="1.25" style="3" customWidth="1"/>
-    <col min="8" max="8" width="10.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="29.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>4</v>
@@ -1863,1283 +2492,1475 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
-        <v>42850</v>
-      </c>
-      <c r="B2" s="7">
-        <v>276121.7</v>
+        <v>42816</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="C2" s="7">
-        <v>250884</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>6</v>
-      </c>
+        <v>30000</v>
+      </c>
+      <c r="D2" s="7"/>
       <c r="E2" s="7">
-        <f>B2-C2</f>
-        <v>25237.700000000012</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>7</v>
-      </c>
+        <f>C2-D2</f>
+        <v>30000</v>
+      </c>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="7">
-        <v>369376.44</v>
+      <c r="A3" s="5">
+        <v>42816</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="C3" s="7">
-        <v>319789.21000000002</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="8">
-        <f>E2+B3-C3</f>
-        <v>74824.929999999993</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>8</v>
-      </c>
+        <v>39000</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7">
+        <f>E2+C3-D3</f>
+        <v>69000</v>
+      </c>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="7">
-        <v>23410</v>
+      <c r="A4" s="5">
+        <v>42816</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="8">
-        <f t="shared" ref="E4:E20" si="0">E3+B4-C4</f>
-        <v>98234.93</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>9</v>
-      </c>
+        <v>20000</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7">
+        <f>E3+C4-D4</f>
+        <v>89000</v>
+      </c>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="7">
-        <v>64863.5</v>
+      <c r="A5" s="5">
+        <v>42826</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="C5" s="7">
-        <v>49221.96</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="8">
-        <f t="shared" si="0"/>
-        <v>113876.47</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>11</v>
-      </c>
+        <v>10000</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7">
+        <f>E4+C5-D5</f>
+        <v>99000</v>
+      </c>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
-        <v>42814</v>
-      </c>
-      <c r="B6" s="7"/>
+        <v>42838</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>36</v>
+      </c>
       <c r="C6" s="7">
+        <v>191986.15</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7">
+        <f>E5+C6-D6</f>
+        <v>290986.15000000002</v>
+      </c>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>42817</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="7">
+        <v>400000</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7">
+        <f>E6+C7-D7</f>
+        <v>690986.15</v>
+      </c>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>42894</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="7">
+        <v>64863.5</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7">
+        <f>E7+C8-D8</f>
+        <v>755849.65</v>
+      </c>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>42836</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7">
         <v>4032</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="8">
-        <f t="shared" si="0"/>
-        <v>109844.47</v>
-      </c>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7">
+      <c r="E9" s="7">
+        <f>E8+C9-D9</f>
+        <v>751817.65</v>
+      </c>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>42844</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7">
         <v>3700</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="8">
-        <f t="shared" si="0"/>
-        <v>106144.47</v>
-      </c>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7">
-        <v>9747</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="8">
-        <f t="shared" si="0"/>
-        <v>96397.47</v>
-      </c>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7">
-        <v>1170</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="8">
-        <f t="shared" si="0"/>
-        <v>95227.47</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7">
+      <c r="E10" s="7">
+        <f>E9+C10-D10</f>
+        <v>748117.65</v>
+      </c>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>42844</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7">
+        <v>100</v>
+      </c>
+      <c r="E11" s="7">
+        <f>E10+C11-D11</f>
+        <v>748017.65</v>
+      </c>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>42844</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7">
+        <v>30000</v>
+      </c>
+      <c r="E12" s="7">
+        <f>E11+C12-D12</f>
+        <v>718017.65</v>
+      </c>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>42845</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7">
         <v>3600</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="8">
-        <f t="shared" si="0"/>
-        <v>91627.47</v>
-      </c>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7">
+      <c r="E13" s="7">
+        <f>E12+C13-D13</f>
+        <v>714417.65</v>
+      </c>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>42850</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7">
         <v>1106</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="8">
-        <f t="shared" si="0"/>
-        <v>90521.47</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7">
-        <v>813</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="8">
-        <f t="shared" si="0"/>
-        <v>89708.47</v>
-      </c>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7">
-        <v>2400</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="8">
-        <f t="shared" si="0"/>
-        <v>87308.47</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7">
-        <v>100</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="8">
-        <f t="shared" si="0"/>
-        <v>87208.47</v>
+      <c r="E14" s="7">
+        <f>E13+C14-D14</f>
+        <v>713311.65</v>
       </c>
       <c r="F14" s="7"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7">
-        <v>1600</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="8">
-        <f t="shared" si="0"/>
-        <v>85608.47</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>24</v>
-      </c>
+      <c r="B15" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7">
+        <v>813</v>
+      </c>
+      <c r="E15" s="7">
+        <f>E14+C15-D15</f>
+        <v>712498.65</v>
+      </c>
+      <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7">
+      <c r="B16" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7">
+        <v>3184</v>
+      </c>
+      <c r="E16" s="7">
+        <f>E15+C16-D16</f>
+        <v>709314.65</v>
+      </c>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="5"/>
+      <c r="B17" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7">
+        <v>1600</v>
+      </c>
+      <c r="E17" s="7">
+        <f>E16+C17-D17</f>
+        <v>707714.65</v>
+      </c>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="5"/>
+      <c r="B18" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7">
         <v>175</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="8">
+      <c r="E18" s="7">
+        <f>E17+C18-D18</f>
+        <v>707539.65</v>
+      </c>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="5"/>
+      <c r="B19" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7">
+        <v>330</v>
+      </c>
+      <c r="E19" s="7">
+        <f>E18+C19-D19</f>
+        <v>707209.65</v>
+      </c>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="5"/>
+      <c r="B20" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7">
+        <v>200</v>
+      </c>
+      <c r="E20" s="7">
+        <f>E19+C20-D20</f>
+        <v>707009.65</v>
+      </c>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="5"/>
+      <c r="B21" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7">
+        <v>3666</v>
+      </c>
+      <c r="E21" s="7">
+        <f>E20+C21-D21</f>
+        <v>703343.65</v>
+      </c>
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>42890</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="8">
+        <v>9747.19</v>
+      </c>
+      <c r="E22" s="7">
+        <f>E21+C22-D22</f>
+        <v>693596.46000000008</v>
+      </c>
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="5"/>
+      <c r="B23" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="7">
+        <v>1169.6600000000001</v>
+      </c>
+      <c r="E23" s="7">
+        <f>E22+C23-D23</f>
+        <v>692426.8</v>
+      </c>
+      <c r="F23" s="7"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="5"/>
+      <c r="B24" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="7">
+        <v>2400</v>
+      </c>
+      <c r="E24" s="7">
+        <f>E23+C24-D24</f>
+        <v>690026.8</v>
+      </c>
+      <c r="F24" s="7"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="5"/>
+      <c r="B25" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="7">
+        <v>28.32</v>
+      </c>
+      <c r="E25" s="7">
+        <f>E24+C25-D25</f>
+        <v>689998.4800000001</v>
+      </c>
+      <c r="F25" s="7"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
+        <v>42854</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="7">
+        <v>419.92</v>
+      </c>
+      <c r="E26" s="7">
+        <f>E25+C26-D26</f>
+        <v>689578.56</v>
+      </c>
+      <c r="F26" s="7"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
+        <v>42865</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="7">
+        <v>63.97</v>
+      </c>
+      <c r="E27" s="7">
+        <f t="shared" ref="E27:E43" si="0">E26+C27-D27</f>
+        <v>689514.59000000008</v>
+      </c>
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="5"/>
+      <c r="B28" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="7">
+        <v>87.94</v>
+      </c>
+      <c r="E28" s="7">
         <f t="shared" si="0"/>
-        <v>85433.47</v>
-      </c>
-      <c r="F16" s="7"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7">
-        <v>330</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="8">
+        <v>689426.65000000014</v>
+      </c>
+      <c r="F28" s="7"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="5"/>
+      <c r="B29" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="7">
+        <v>112.36</v>
+      </c>
+      <c r="E29" s="7">
         <f t="shared" si="0"/>
-        <v>85103.47</v>
-      </c>
-      <c r="F17" s="7"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7">
-        <v>200</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="8">
+        <v>689314.29000000015</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="5">
+        <v>42850</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="7">
+        <v>8465</v>
+      </c>
+      <c r="E30" s="7">
         <f t="shared" si="0"/>
-        <v>84903.47</v>
-      </c>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7">
-        <v>3184</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="8">
+        <v>680849.29000000015</v>
+      </c>
+      <c r="F30" s="7"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="5">
+        <v>42893</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="7">
+        <v>10000</v>
+      </c>
+      <c r="E31" s="7">
         <f t="shared" si="0"/>
-        <v>81719.47</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="5">
-        <v>42815</v>
-      </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="8">
-        <v>3666</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="8">
+        <v>670849.29000000015</v>
+      </c>
+      <c r="F31" s="7"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="5">
+        <v>42895</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="7">
+        <v>20000</v>
+      </c>
+      <c r="E32" s="7">
         <f t="shared" si="0"/>
-        <v>78053.47</v>
-      </c>
-      <c r="F20" s="8"/>
-      <c r="H20" s="8">
-        <v>77793.47</v>
-      </c>
-      <c r="I20" s="9">
-        <f>E20-H20</f>
-        <v>260</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="5"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="5"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="5"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
+        <v>650849.29000000015</v>
+      </c>
       <c r="F32" s="7"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="5"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
+      <c r="A33" s="5">
+        <v>42895</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="7">
+        <v>39000</v>
+      </c>
+      <c r="E33" s="7">
+        <f t="shared" si="0"/>
+        <v>611849.29000000015</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="5"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
+      <c r="B34" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="7">
+        <v>250884</v>
+      </c>
+      <c r="E34" s="7">
+        <f t="shared" si="0"/>
+        <v>360965.29000000015</v>
+      </c>
       <c r="F34" s="7"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
+      <c r="B35" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="D35" s="7">
+        <v>319789.21000000002</v>
+      </c>
+      <c r="E35" s="7">
+        <f t="shared" si="0"/>
+        <v>41176.080000000133</v>
+      </c>
       <c r="F35" s="7"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="5"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
+      <c r="B36" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" s="6"/>
+      <c r="D36" s="7">
+        <v>49221.96</v>
+      </c>
+      <c r="E36" s="7">
+        <f t="shared" si="0"/>
+        <v>-8045.8799999998664</v>
+      </c>
       <c r="F36" s="7"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
+      <c r="A37" s="5">
+        <v>42878</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" s="6"/>
+      <c r="D37" s="7">
+        <v>106</v>
+      </c>
+      <c r="E37" s="7">
+        <f t="shared" si="0"/>
+        <v>-8151.8799999998664</v>
+      </c>
       <c r="F37" s="7"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="5"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
+      <c r="A38" s="5">
+        <v>42863</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" s="6"/>
+      <c r="D38" s="7">
+        <v>753</v>
+      </c>
+      <c r="E38" s="7">
+        <f t="shared" si="0"/>
+        <v>-8904.8799999998664</v>
+      </c>
       <c r="F38" s="7"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
+      <c r="B39" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" s="6"/>
+      <c r="D39" s="7">
+        <v>18649</v>
+      </c>
+      <c r="E39" s="7">
+        <f t="shared" si="0"/>
+        <v>-27553.879999999866</v>
+      </c>
       <c r="F39" s="7"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="5"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
+      <c r="B40" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40" s="6"/>
+      <c r="D40" s="7">
+        <v>13508</v>
+      </c>
+      <c r="E40" s="7">
+        <f t="shared" si="0"/>
+        <v>-41061.879999999866</v>
+      </c>
       <c r="F40" s="7"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="5"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
+      <c r="B41" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" s="6"/>
+      <c r="D41" s="7">
+        <v>3666</v>
+      </c>
+      <c r="E41" s="7">
+        <f t="shared" si="0"/>
+        <v>-44727.879999999866</v>
+      </c>
       <c r="F41" s="7"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="5"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="7"/>
+      <c r="A42" s="5">
+        <v>42894</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C42" s="6">
+        <v>64863.5</v>
+      </c>
       <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
+      <c r="E42" s="7">
+        <f t="shared" si="0"/>
+        <v>20135.620000000134</v>
+      </c>
       <c r="F42" s="7"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="5"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="7"/>
+      <c r="A43" s="5">
+        <v>42900</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C43" s="6">
+        <v>76661.990000000005</v>
+      </c>
       <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
+      <c r="E43" s="7">
+        <f t="shared" si="0"/>
+        <v>96797.610000000132</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="6"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
+      <c r="F44" s="6"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="5"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="7"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="6"/>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="5"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="7"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="6"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="5"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="6"/>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="7"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="6"/>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="6"/>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="5"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="7"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="6"/>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="5"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="7"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="6"/>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="5"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="7"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="6"/>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="5"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="7"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="6"/>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="5"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="7"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="6"/>
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="5"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="7"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="6"/>
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="5"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="7"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="6"/>
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="5"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="7"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="6"/>
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="5"/>
-      <c r="B58" s="6"/>
-      <c r="C58" s="7"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="6"/>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="5"/>
-      <c r="B59" s="6"/>
-      <c r="C59" s="7"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="6"/>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="5"/>
-      <c r="B60" s="6"/>
-      <c r="C60" s="7"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="6"/>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
       <c r="F60" s="7"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="5"/>
-      <c r="B61" s="6"/>
-      <c r="C61" s="7"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="6"/>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
       <c r="F61" s="7"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="5"/>
-      <c r="B62" s="6"/>
-      <c r="C62" s="7"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="6"/>
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
       <c r="F62" s="7"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="5"/>
-      <c r="B63" s="6"/>
-      <c r="C63" s="7"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="6"/>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
       <c r="F63" s="7"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="5"/>
-      <c r="B64" s="6"/>
-      <c r="C64" s="7"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="6"/>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="5"/>
-      <c r="B65" s="6"/>
-      <c r="C65" s="7"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="6"/>
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
       <c r="F65" s="7"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="5"/>
-      <c r="B66" s="6"/>
-      <c r="C66" s="7"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="6"/>
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
       <c r="F66" s="7"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="5"/>
-      <c r="B67" s="6"/>
-      <c r="C67" s="7"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="6"/>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
       <c r="F67" s="7"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="5"/>
-      <c r="B68" s="6"/>
-      <c r="C68" s="7"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="6"/>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
       <c r="F68" s="7"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="5"/>
-      <c r="B69" s="6"/>
-      <c r="C69" s="7"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="6"/>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
       <c r="F69" s="7"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="5"/>
-      <c r="B70" s="6"/>
-      <c r="C70" s="7"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="6"/>
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
       <c r="F70" s="7"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="5"/>
-      <c r="B71" s="6"/>
-      <c r="C71" s="7"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="6"/>
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
       <c r="F71" s="7"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="5"/>
-      <c r="B72" s="6"/>
-      <c r="C72" s="7"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="6"/>
       <c r="D72" s="7"/>
       <c r="E72" s="7"/>
       <c r="F72" s="7"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="5"/>
-      <c r="B73" s="6"/>
-      <c r="C73" s="7"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="6"/>
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
       <c r="F73" s="7"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="5"/>
-      <c r="B74" s="6"/>
-      <c r="C74" s="7"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="6"/>
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
       <c r="F74" s="7"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="5"/>
-      <c r="B75" s="6"/>
-      <c r="C75" s="7"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="6"/>
       <c r="D75" s="7"/>
       <c r="E75" s="7"/>
       <c r="F75" s="7"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="5"/>
-      <c r="B76" s="6"/>
-      <c r="C76" s="7"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="6"/>
       <c r="D76" s="7"/>
       <c r="E76" s="7"/>
       <c r="F76" s="7"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="5"/>
-      <c r="B77" s="6"/>
-      <c r="C77" s="7"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="6"/>
       <c r="D77" s="7"/>
       <c r="E77" s="7"/>
       <c r="F77" s="7"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="5"/>
-      <c r="B78" s="6"/>
-      <c r="C78" s="7"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="6"/>
       <c r="D78" s="7"/>
       <c r="E78" s="7"/>
       <c r="F78" s="7"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="5"/>
-      <c r="B79" s="6"/>
-      <c r="C79" s="7"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="6"/>
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
       <c r="F79" s="7"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="5"/>
-      <c r="B80" s="6"/>
-      <c r="C80" s="7"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="6"/>
       <c r="D80" s="7"/>
       <c r="E80" s="7"/>
       <c r="F80" s="7"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="5"/>
-      <c r="B81" s="6"/>
-      <c r="C81" s="7"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="6"/>
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
       <c r="F81" s="7"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="5"/>
-      <c r="B82" s="6"/>
-      <c r="C82" s="7"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="6"/>
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
       <c r="F82" s="7"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="5"/>
-      <c r="B83" s="6"/>
-      <c r="C83" s="7"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="6"/>
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
       <c r="F83" s="7"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="5"/>
-      <c r="B84" s="6"/>
-      <c r="C84" s="7"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="6"/>
       <c r="D84" s="7"/>
       <c r="E84" s="7"/>
       <c r="F84" s="7"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="5"/>
-      <c r="B85" s="6"/>
-      <c r="C85" s="7"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="6"/>
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
       <c r="F85" s="7"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="5"/>
-      <c r="B86" s="6"/>
-      <c r="C86" s="7"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="6"/>
       <c r="D86" s="7"/>
       <c r="E86" s="7"/>
       <c r="F86" s="7"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="5"/>
-      <c r="B87" s="6"/>
-      <c r="C87" s="7"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="6"/>
       <c r="D87" s="7"/>
       <c r="E87" s="7"/>
       <c r="F87" s="7"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="5"/>
-      <c r="B88" s="6"/>
-      <c r="C88" s="7"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="6"/>
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
       <c r="F88" s="7"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="5"/>
-      <c r="B89" s="6"/>
-      <c r="C89" s="7"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="6"/>
       <c r="D89" s="7"/>
       <c r="E89" s="7"/>
       <c r="F89" s="7"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="5"/>
-      <c r="B90" s="6"/>
-      <c r="C90" s="7"/>
+      <c r="B90" s="7"/>
+      <c r="C90" s="6"/>
       <c r="D90" s="7"/>
       <c r="E90" s="7"/>
       <c r="F90" s="7"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="5"/>
-      <c r="B91" s="6"/>
-      <c r="C91" s="7"/>
+      <c r="B91" s="7"/>
+      <c r="C91" s="6"/>
       <c r="D91" s="7"/>
       <c r="E91" s="7"/>
       <c r="F91" s="7"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="5"/>
-      <c r="B92" s="6"/>
-      <c r="C92" s="7"/>
+      <c r="B92" s="7"/>
+      <c r="C92" s="6"/>
       <c r="D92" s="7"/>
       <c r="E92" s="7"/>
       <c r="F92" s="7"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="5"/>
-      <c r="B93" s="6"/>
-      <c r="C93" s="7"/>
+      <c r="B93" s="7"/>
+      <c r="C93" s="6"/>
       <c r="D93" s="7"/>
       <c r="E93" s="7"/>
       <c r="F93" s="7"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="5"/>
-      <c r="B94" s="6"/>
-      <c r="C94" s="7"/>
+      <c r="B94" s="7"/>
+      <c r="C94" s="6"/>
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
       <c r="F94" s="7"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="5"/>
-      <c r="B95" s="6"/>
-      <c r="C95" s="7"/>
+      <c r="B95" s="7"/>
+      <c r="C95" s="6"/>
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
       <c r="F95" s="7"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="5"/>
-      <c r="B96" s="6"/>
-      <c r="C96" s="7"/>
+      <c r="B96" s="7"/>
+      <c r="C96" s="6"/>
       <c r="D96" s="7"/>
       <c r="E96" s="7"/>
       <c r="F96" s="7"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="5"/>
-      <c r="B97" s="6"/>
-      <c r="C97" s="7"/>
+      <c r="B97" s="7"/>
+      <c r="C97" s="6"/>
       <c r="D97" s="7"/>
       <c r="E97" s="7"/>
       <c r="F97" s="7"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="5"/>
-      <c r="B98" s="6"/>
-      <c r="C98" s="7"/>
+      <c r="B98" s="7"/>
+      <c r="C98" s="6"/>
       <c r="D98" s="7"/>
       <c r="E98" s="7"/>
       <c r="F98" s="7"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="5"/>
-      <c r="B99" s="6"/>
-      <c r="C99" s="7"/>
+      <c r="B99" s="7"/>
+      <c r="C99" s="6"/>
       <c r="D99" s="7"/>
       <c r="E99" s="7"/>
       <c r="F99" s="7"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="5"/>
-      <c r="B100" s="6"/>
-      <c r="C100" s="7"/>
+      <c r="B100" s="7"/>
+      <c r="C100" s="6"/>
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
       <c r="F100" s="7"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="5"/>
-      <c r="B101" s="6"/>
-      <c r="C101" s="7"/>
+      <c r="B101" s="7"/>
+      <c r="C101" s="6"/>
       <c r="D101" s="7"/>
       <c r="E101" s="7"/>
       <c r="F101" s="7"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="5"/>
-      <c r="B102" s="6"/>
-      <c r="C102" s="7"/>
+      <c r="B102" s="7"/>
+      <c r="C102" s="6"/>
       <c r="D102" s="7"/>
       <c r="E102" s="7"/>
       <c r="F102" s="7"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="5"/>
-      <c r="B103" s="6"/>
-      <c r="C103" s="7"/>
+      <c r="B103" s="7"/>
+      <c r="C103" s="6"/>
       <c r="D103" s="7"/>
       <c r="E103" s="7"/>
       <c r="F103" s="7"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="5"/>
-      <c r="B104" s="6"/>
-      <c r="C104" s="7"/>
+      <c r="B104" s="7"/>
+      <c r="C104" s="6"/>
       <c r="D104" s="7"/>
       <c r="E104" s="7"/>
       <c r="F104" s="7"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="5"/>
-      <c r="B105" s="6"/>
-      <c r="C105" s="7"/>
+      <c r="B105" s="7"/>
+      <c r="C105" s="6"/>
       <c r="D105" s="7"/>
       <c r="E105" s="7"/>
       <c r="F105" s="7"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="5"/>
-      <c r="B106" s="6"/>
-      <c r="C106" s="7"/>
+      <c r="B106" s="7"/>
+      <c r="C106" s="6"/>
       <c r="D106" s="7"/>
       <c r="E106" s="7"/>
       <c r="F106" s="7"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="5"/>
-      <c r="B107" s="6"/>
-      <c r="C107" s="7"/>
+      <c r="B107" s="7"/>
+      <c r="C107" s="6"/>
       <c r="D107" s="7"/>
       <c r="E107" s="7"/>
       <c r="F107" s="7"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="5"/>
-      <c r="B108" s="6"/>
-      <c r="C108" s="7"/>
+      <c r="B108" s="7"/>
+      <c r="C108" s="6"/>
       <c r="D108" s="7"/>
       <c r="E108" s="7"/>
       <c r="F108" s="7"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="5"/>
-      <c r="B109" s="6"/>
-      <c r="C109" s="7"/>
+      <c r="B109" s="7"/>
+      <c r="C109" s="6"/>
       <c r="D109" s="7"/>
       <c r="E109" s="7"/>
       <c r="F109" s="7"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="5"/>
-      <c r="B110" s="6"/>
-      <c r="C110" s="7"/>
+      <c r="B110" s="7"/>
+      <c r="C110" s="6"/>
       <c r="D110" s="7"/>
       <c r="E110" s="7"/>
       <c r="F110" s="7"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="5"/>
-      <c r="B111" s="6"/>
-      <c r="C111" s="7"/>
+      <c r="B111" s="7"/>
+      <c r="C111" s="6"/>
       <c r="D111" s="7"/>
       <c r="E111" s="7"/>
       <c r="F111" s="7"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="5"/>
-      <c r="B112" s="6"/>
-      <c r="C112" s="7"/>
+      <c r="B112" s="7"/>
+      <c r="C112" s="6"/>
       <c r="D112" s="7"/>
       <c r="E112" s="7"/>
       <c r="F112" s="7"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="5"/>
-      <c r="B113" s="6"/>
-      <c r="C113" s="7"/>
+      <c r="B113" s="7"/>
+      <c r="C113" s="6"/>
       <c r="D113" s="7"/>
       <c r="E113" s="7"/>
       <c r="F113" s="7"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="5"/>
-      <c r="B114" s="6"/>
-      <c r="C114" s="7"/>
+      <c r="B114" s="7"/>
+      <c r="C114" s="6"/>
       <c r="D114" s="7"/>
       <c r="E114" s="7"/>
       <c r="F114" s="7"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="5"/>
-      <c r="B115" s="6"/>
-      <c r="C115" s="7"/>
+      <c r="B115" s="7"/>
+      <c r="C115" s="6"/>
       <c r="D115" s="7"/>
       <c r="E115" s="7"/>
       <c r="F115" s="7"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="5"/>
-      <c r="B116" s="6"/>
-      <c r="C116" s="7"/>
+      <c r="B116" s="7"/>
+      <c r="C116" s="6"/>
       <c r="D116" s="7"/>
       <c r="E116" s="7"/>
       <c r="F116" s="7"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="5"/>
-      <c r="B117" s="6"/>
-      <c r="C117" s="7"/>
+      <c r="B117" s="7"/>
+      <c r="C117" s="6"/>
       <c r="D117" s="7"/>
       <c r="E117" s="7"/>
       <c r="F117" s="7"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="5"/>
-      <c r="B118" s="6"/>
-      <c r="C118" s="7"/>
+      <c r="B118" s="7"/>
+      <c r="C118" s="6"/>
       <c r="D118" s="7"/>
       <c r="E118" s="7"/>
       <c r="F118" s="7"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="5"/>
-      <c r="B119" s="6"/>
-      <c r="C119" s="7"/>
+      <c r="B119" s="7"/>
+      <c r="C119" s="6"/>
       <c r="D119" s="7"/>
       <c r="E119" s="7"/>
       <c r="F119" s="7"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="5"/>
-      <c r="B120" s="6"/>
-      <c r="C120" s="7"/>
+      <c r="B120" s="7"/>
+      <c r="C120" s="6"/>
       <c r="D120" s="7"/>
       <c r="E120" s="7"/>
       <c r="F120" s="7"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="5"/>
-      <c r="B121" s="6"/>
-      <c r="C121" s="7"/>
+      <c r="B121" s="7"/>
+      <c r="C121" s="6"/>
       <c r="D121" s="7"/>
       <c r="E121" s="7"/>
       <c r="F121" s="7"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="5"/>
-      <c r="B122" s="6"/>
-      <c r="C122" s="7"/>
+      <c r="B122" s="7"/>
+      <c r="C122" s="6"/>
       <c r="D122" s="7"/>
       <c r="E122" s="7"/>
       <c r="F122" s="7"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="5"/>
-      <c r="B123" s="6"/>
-      <c r="C123" s="7"/>
+      <c r="B123" s="7"/>
+      <c r="C123" s="6"/>
       <c r="D123" s="7"/>
       <c r="E123" s="7"/>
       <c r="F123" s="7"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="5"/>
-      <c r="B124" s="6"/>
-      <c r="C124" s="7"/>
+      <c r="B124" s="7"/>
+      <c r="C124" s="6"/>
       <c r="D124" s="7"/>
       <c r="E124" s="7"/>
       <c r="F124" s="7"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="5"/>
-      <c r="B125" s="6"/>
-      <c r="C125" s="7"/>
+      <c r="B125" s="7"/>
+      <c r="C125" s="6"/>
       <c r="D125" s="7"/>
       <c r="E125" s="7"/>
       <c r="F125" s="7"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="5"/>
-      <c r="B126" s="6"/>
-      <c r="C126" s="7"/>
+      <c r="B126" s="7"/>
+      <c r="C126" s="6"/>
       <c r="D126" s="7"/>
       <c r="E126" s="7"/>
       <c r="F126" s="7"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="5"/>
-      <c r="B127" s="6"/>
-      <c r="C127" s="7"/>
+      <c r="B127" s="7"/>
+      <c r="C127" s="6"/>
       <c r="D127" s="7"/>
       <c r="E127" s="7"/>
       <c r="F127" s="7"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="5"/>
-      <c r="B128" s="6"/>
-      <c r="C128" s="7"/>
+      <c r="B128" s="7"/>
+      <c r="C128" s="6"/>
       <c r="D128" s="7"/>
       <c r="E128" s="7"/>
       <c r="F128" s="7"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="5"/>
-      <c r="B129" s="6"/>
-      <c r="C129" s="7"/>
+      <c r="B129" s="7"/>
+      <c r="C129" s="6"/>
       <c r="D129" s="7"/>
       <c r="E129" s="7"/>
       <c r="F129" s="7"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="5"/>
-      <c r="B130" s="6"/>
-      <c r="C130" s="7"/>
+      <c r="B130" s="7"/>
+      <c r="C130" s="6"/>
       <c r="D130" s="7"/>
       <c r="E130" s="7"/>
       <c r="F130" s="7"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="5"/>
-      <c r="B131" s="6"/>
-      <c r="C131" s="7"/>
+      <c r="B131" s="7"/>
+      <c r="C131" s="6"/>
       <c r="D131" s="7"/>
       <c r="E131" s="7"/>
       <c r="F131" s="7"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="5"/>
-      <c r="B132" s="6"/>
-      <c r="C132" s="7"/>
+      <c r="B132" s="7"/>
+      <c r="C132" s="6"/>
       <c r="D132" s="7"/>
       <c r="E132" s="7"/>
       <c r="F132" s="7"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="5"/>
-      <c r="B133" s="6"/>
-      <c r="C133" s="7"/>
+      <c r="B133" s="7"/>
+      <c r="C133" s="6"/>
       <c r="D133" s="7"/>
       <c r="E133" s="7"/>
       <c r="F133" s="7"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="5"/>
-      <c r="B134" s="6"/>
-      <c r="C134" s="7"/>
+      <c r="B134" s="7"/>
+      <c r="C134" s="6"/>
       <c r="D134" s="7"/>
       <c r="E134" s="7"/>
       <c r="F134" s="7"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="5"/>
-      <c r="B135" s="6"/>
-      <c r="C135" s="7"/>
+      <c r="B135" s="7"/>
+      <c r="C135" s="6"/>
       <c r="D135" s="7"/>
       <c r="E135" s="7"/>
       <c r="F135" s="7"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="5"/>
-      <c r="B136" s="6"/>
-      <c r="C136" s="7"/>
+      <c r="B136" s="7"/>
+      <c r="C136" s="6"/>
       <c r="D136" s="7"/>
       <c r="E136" s="7"/>
       <c r="F136" s="7"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="5"/>
-      <c r="B137" s="6"/>
-      <c r="C137" s="7"/>
+      <c r="B137" s="7"/>
+      <c r="C137" s="6"/>
       <c r="D137" s="7"/>
       <c r="E137" s="7"/>
       <c r="F137" s="7"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="5"/>
-      <c r="B138" s="6"/>
-      <c r="C138" s="7"/>
+      <c r="B138" s="7"/>
+      <c r="C138" s="6"/>
       <c r="D138" s="7"/>
       <c r="E138" s="7"/>
       <c r="F138" s="7"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="5"/>
-      <c r="B139" s="6"/>
-      <c r="C139" s="7"/>
+      <c r="B139" s="7"/>
+      <c r="C139" s="6"/>
       <c r="D139" s="7"/>
       <c r="E139" s="7"/>
       <c r="F139" s="7"/>
     </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A140" s="5"/>
+      <c r="B140" s="7"/>
+      <c r="C140" s="6"/>
+      <c r="D140" s="7"/>
+      <c r="E140" s="7"/>
+      <c r="F140" s="7"/>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A141" s="5"/>
+      <c r="B141" s="7"/>
+      <c r="C141" s="6"/>
+      <c r="D141" s="7"/>
+      <c r="E141" s="7"/>
+      <c r="F141" s="7"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
 </worksheet>
 </file>